--- a/biology/Zoologie/Hypotheridiosoma_paracymbium/Hypotheridiosoma_paracymbium.xlsx
+++ b/biology/Zoologie/Hypotheridiosoma_paracymbium/Hypotheridiosoma_paracymbium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypotheridiosoma paracymbium est une espèce fossile d'araignées aranéomorphes de la famille des Zarqaraneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypotheridiosoma paracymbium est une espèce fossile d'araignées aranéomorphes de la famille des Zarqaraneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 0,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 0,9 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wunderlich, 2012 : On the fossil spider (Araneae) fauna in Cretaceous ambers, with descriptions of new taxa from Myanmar (Burma) and Jordan, and on the relationships of the superfamily Leptonetoidea. Beiträge zur Araneologie, vol. 7, p. 157–232 (en).</t>
         </is>
